--- a/data_analysis/group_perf_data.xlsx
+++ b/data_analysis/group_perf_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.tiesman/Documents/Research/Human_AV_Motion/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC1B55E-DB1C-B04C-BECE-77E3D96C80C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA253B46-3608-BC41-8F98-46E9A28A5275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="128">
   <si>
     <t>Aud Coh</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>vis_r2</t>
+  </si>
+  <si>
+    <t>37 and 38</t>
+  </si>
+  <si>
+    <t>13, 14, 15</t>
   </si>
 </sst>
 </file>
@@ -61482,16 +61488,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BA4F4-0E61-5E41-980B-6C6A3201DD04}">
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <pane xSplit="4" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -61606,8 +61612,14 @@
       <c r="AL1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -61733,7 +61745,7 @@
         <v>-3.5702138000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -61859,7 +61871,7 @@
         <v>-7.8974584000000014E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -61979,7 +61991,7 @@
         <v>-4.34260016E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -62099,7 +62111,7 @@
         <v>-4.8377144300000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -62219,7 +62231,7 @@
         <v>-2.8177793E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -62339,7 +62351,7 @@
         <v>-1.3976329999999954E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -62459,7 +62471,7 @@
         <v>-1.0729278199999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -62579,7 +62591,7 @@
         <v>-7.2511925599999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -62699,7 +62711,7 @@
         <v>0.13164567699999999</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -62818,7 +62830,7 @@
         <v>-0.13572483359999998</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -62937,7 +62949,7 @@
         <v>5.5742920000000015E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -63056,7 +63068,7 @@
         <v>-2.7374583619999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -63175,7 +63187,7 @@
         <v>-7.5166480600000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -63294,7 +63306,7 @@
         <v>-8.0637474000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
